--- a/test/output/new網路壽命比較.xlsx
+++ b/test/output/new網路壽命比較.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0929BC0E-2ABC-441E-907B-04DA9F0D6D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F5812B-CFD5-4819-BB3E-603332AB4A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30225" yWindow="3405" windowWidth="14595" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="1875" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>AVG_LIFETIME</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -45,15 +45,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RS0</t>
+    <t>1.2/1.3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RS1</t>
+    <t>1.2/1.4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RS2</t>
+    <t>1.3/1.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3/1.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3/1.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2/1.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4/1.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4/1.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4/1.7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -551,25 +575,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>28141</c:v>
+                  <c:v>34921</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24793</c:v>
+                  <c:v>33171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18283</c:v>
+                  <c:v>23151</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17801</c:v>
+                  <c:v>20671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14286</c:v>
+                  <c:v>20059</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12981</c:v>
+                  <c:v>15633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12581</c:v>
+                  <c:v>16267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1306,25 +1330,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>34588</c:v>
+                  <c:v>38151</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32315</c:v>
+                  <c:v>32339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26225.5</c:v>
+                  <c:v>27731</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26225.5</c:v>
+                  <c:v>20818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23131</c:v>
+                  <c:v>18621</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15422</c:v>
+                  <c:v>17441</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13426</c:v>
+                  <c:v>15071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1670,8 +1694,9 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1682,97 +1707,47 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RS0</c:v>
+                  <c:v>1.2/1.3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="765B97"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="765B97"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="765B97"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$13:$I$13</c:f>
+              <c:f>工作表1!$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$14:$I$14</c:f>
+              <c:f>工作表1!$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>26077</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13441</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10031</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9864</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6491</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5831</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-91A7-4FDF-A20C-31CC297ED77F}"/>
@@ -1788,97 +1763,53 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RS1</c:v>
+                  <c:v>1.2/1.4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="9900CC"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="9900CC"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="9900CC"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$13:$I$13</c:f>
+              <c:f>工作表1!$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$15:$I$15</c:f>
+              <c:f>工作表1!$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>19771</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13165</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10757</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7359</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7747</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5803</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4696</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-91A7-4FDF-A20C-31CC297ED77F}"/>
@@ -1894,100 +1825,396 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RS2</c:v>
+                  <c:v>1.2/1.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF00FF"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$13:$I$13</c:f>
+              <c:f>工作表1!$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$16:$I$16</c:f>
+              <c:f>工作表1!$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>17262</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15947</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16064</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12135</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10787</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10774</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10758</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-91A7-4FDF-A20C-31CC297ED77F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.3/1.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4F61-402B-8DD3-F84CA6FBFCFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.3/1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19741</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4F61-402B-8DD3-F84CA6FBFCFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.3/1.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4F61-402B-8DD3-F84CA6FBFCFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.4/1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16845</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4F61-402B-8DD3-F84CA6FBFCFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.4/1.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4F61-402B-8DD3-F84CA6FBFCFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.4/1.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4F61-402B-8DD3-F84CA6FBFCFB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1999,11 +2226,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="350830704"/>
         <c:axId val="350830312"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="350830704"/>
         <c:scaling>
@@ -2128,6 +2354,1726 @@
         <c:axId val="350830312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="25000"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>network</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> lifetime(S)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350830704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.2/1.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D8B5-4F7B-A467-71995824BB9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.2/1.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>26386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D8B5-4F7B-A467-71995824BB9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.2/1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D8B5-4F7B-A467-71995824BB9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.3/1.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D8B5-4F7B-A467-71995824BB9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.3/1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D8B5-4F7B-A467-71995824BB9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.3/1.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>26441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D8B5-4F7B-A467-71995824BB9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.4/1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D8B5-4F7B-A467-71995824BB9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.4/1.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>26451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D8B5-4F7B-A467-71995824BB9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.4/1.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>26251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D8B5-4F7B-A467-71995824BB9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="350830704"/>
+        <c:axId val="350830312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="350830704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>感測器總數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350830312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="350830312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="31000"/>
+          <c:min val="23000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>network</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> lifetime(S)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350830704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.2/1.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2644-4C51-B873-EE140E4FEB81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.2/1.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2644-4C51-B873-EE140E4FEB81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.2/1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15940</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2644-4C51-B873-EE140E4FEB81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.3/1.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15881</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2644-4C51-B873-EE140E4FEB81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.3/1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2644-4C51-B873-EE140E4FEB81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.3/1.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2644-4C51-B873-EE140E4FEB81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.4/1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2644-4C51-B873-EE140E4FEB81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.4/1.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-2644-4C51-B873-EE140E4FEB81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.4/1.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-2644-4C51-B873-EE140E4FEB81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="350830704"/>
+        <c:axId val="350830312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="350830704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>感測器總數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350830312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="350830312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25000"/>
+          <c:min val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2428,6 +4374,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -3471,6 +5497,1048 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3997,14 +7065,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1904</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>51434</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>131444</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4033,14 +7101,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>422908</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>630555</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4067,16 +7135,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>254317</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>99059</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2857</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>68579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4096,6 +7164,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFC78699-DF2D-4B9C-B980-DF6CB8F3A500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>39053</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="圖表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{771F692A-2FC1-4EB6-B927-FA1E26E4DFCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4425,10 +7569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4560,25 +7704,25 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>28141</v>
+        <v>34921</v>
       </c>
       <c r="D5">
-        <v>24793</v>
+        <v>33171</v>
       </c>
       <c r="E5">
-        <v>18283</v>
+        <v>23151</v>
       </c>
       <c r="F5">
-        <v>17801</v>
+        <v>20671</v>
       </c>
       <c r="G5">
-        <v>14286</v>
+        <v>20059</v>
       </c>
       <c r="H5">
-        <v>12981</v>
+        <v>15633</v>
       </c>
       <c r="I5">
-        <v>12581</v>
+        <v>16267</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -4702,25 +7846,25 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>34588</v>
+        <v>38151</v>
       </c>
       <c r="D11">
-        <v>32315</v>
+        <v>32339</v>
       </c>
       <c r="E11">
-        <v>26225.5</v>
+        <v>27731</v>
       </c>
       <c r="F11">
-        <v>26225.5</v>
+        <v>20818</v>
       </c>
       <c r="G11">
-        <v>23131</v>
+        <v>18621</v>
       </c>
       <c r="H11">
-        <v>15422</v>
+        <v>17441</v>
       </c>
       <c r="I11">
-        <v>13426</v>
+        <v>15071</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -4731,49 +7875,48 @@
         <v>400</v>
       </c>
       <c r="D13" s="1">
+        <v>500</v>
+      </c>
+      <c r="E13" s="1">
         <v>600</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
+        <v>700</v>
+      </c>
+      <c r="G13" s="1">
         <v>800</v>
       </c>
-      <c r="F13" s="1">
+      <c r="H13" s="1">
+        <v>900</v>
+      </c>
+      <c r="I13" s="1">
         <v>1000</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1400</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1600</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14">
-        <v>26077</v>
+        <v>36107</v>
       </c>
       <c r="D14">
-        <v>21022</v>
+        <v>30964</v>
       </c>
       <c r="E14">
-        <v>13441</v>
+        <v>27106</v>
       </c>
       <c r="F14">
-        <v>10031</v>
+        <v>19811</v>
       </c>
       <c r="G14">
-        <v>9864</v>
+        <v>17117</v>
       </c>
       <c r="H14">
-        <v>6491</v>
+        <v>15856</v>
       </c>
       <c r="I14">
-        <v>5831</v>
+        <v>13411</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -4781,51 +7924,208 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>19771</v>
+        <v>35019</v>
       </c>
       <c r="D15">
-        <v>13165</v>
+        <v>30091</v>
       </c>
       <c r="E15">
-        <v>10757</v>
+        <v>26386</v>
       </c>
       <c r="F15">
-        <v>7359</v>
+        <v>20818</v>
       </c>
       <c r="G15">
-        <v>7747</v>
+        <v>18621</v>
       </c>
       <c r="H15">
-        <v>5803</v>
+        <v>17441</v>
       </c>
       <c r="I15">
-        <v>4696</v>
+        <v>14021</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>37607</v>
+      </c>
+      <c r="D16">
+        <v>31038</v>
+      </c>
+      <c r="E16">
+        <v>30618</v>
+      </c>
+      <c r="F16">
+        <v>22441</v>
+      </c>
+      <c r="G16">
+        <v>19762</v>
+      </c>
+      <c r="H16">
+        <v>17883</v>
+      </c>
+      <c r="I16">
+        <v>15940</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C16">
-        <v>17262</v>
-      </c>
-      <c r="D16">
-        <v>15947</v>
-      </c>
-      <c r="E16">
-        <v>16064</v>
-      </c>
-      <c r="F16">
-        <v>12135</v>
-      </c>
-      <c r="G16">
-        <v>10787</v>
-      </c>
-      <c r="H16">
-        <v>10774</v>
-      </c>
-      <c r="I16">
-        <v>10758</v>
+      <c r="C17">
+        <v>36881</v>
+      </c>
+      <c r="D17">
+        <v>31073</v>
+      </c>
+      <c r="E17">
+        <v>24926</v>
+      </c>
+      <c r="F17">
+        <v>20547</v>
+      </c>
+      <c r="G17">
+        <v>18666</v>
+      </c>
+      <c r="H17">
+        <v>15104</v>
+      </c>
+      <c r="I17">
+        <v>15881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>33601</v>
+      </c>
+      <c r="D18">
+        <v>30137</v>
+      </c>
+      <c r="E18">
+        <v>27043</v>
+      </c>
+      <c r="F18">
+        <v>21782</v>
+      </c>
+      <c r="G18">
+        <v>19741</v>
+      </c>
+      <c r="H18">
+        <v>17876</v>
+      </c>
+      <c r="I18">
+        <v>14361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>34868</v>
+      </c>
+      <c r="D19">
+        <v>27777</v>
+      </c>
+      <c r="E19">
+        <v>26441</v>
+      </c>
+      <c r="F19">
+        <v>22012</v>
+      </c>
+      <c r="G19">
+        <v>18484</v>
+      </c>
+      <c r="H19">
+        <v>15852</v>
+      </c>
+      <c r="I19">
+        <v>15001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>34600</v>
+      </c>
+      <c r="D20">
+        <v>30611</v>
+      </c>
+      <c r="E20">
+        <v>25824</v>
+      </c>
+      <c r="F20">
+        <v>20205</v>
+      </c>
+      <c r="G20">
+        <v>16845</v>
+      </c>
+      <c r="H20">
+        <v>15545</v>
+      </c>
+      <c r="I20">
+        <v>14408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>36811</v>
+      </c>
+      <c r="D21">
+        <v>28505</v>
+      </c>
+      <c r="E21">
+        <v>26451</v>
+      </c>
+      <c r="F21">
+        <v>20816</v>
+      </c>
+      <c r="G21">
+        <v>19431</v>
+      </c>
+      <c r="H21">
+        <v>13779</v>
+      </c>
+      <c r="I21">
+        <v>14391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>33301</v>
+      </c>
+      <c r="D22">
+        <v>30209</v>
+      </c>
+      <c r="E22">
+        <v>26251</v>
+      </c>
+      <c r="F22">
+        <v>21581</v>
+      </c>
+      <c r="G22">
+        <v>18266</v>
+      </c>
+      <c r="H22">
+        <v>15432</v>
+      </c>
+      <c r="I22">
+        <v>14815</v>
       </c>
     </row>
   </sheetData>

--- a/test/output/new網路壽命比較.xlsx
+++ b/test/output/new網路壽命比較.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F5812B-CFD5-4819-BB3E-603332AB4A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFE65F2-3480-4046-B721-D92405D7BAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="1875" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>AVG_LIFETIME</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>1.4/1.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相差</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -259,25 +263,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>22032</c:v>
+                  <c:v>22995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19606</c:v>
+                  <c:v>20493</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13530.5</c:v>
+                  <c:v>14019</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11104.5</c:v>
+                  <c:v>11160</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8261</c:v>
+                  <c:v>7419</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5691</c:v>
+                  <c:v>6860</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5352.5</c:v>
+                  <c:v>4621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -471,25 +475,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2101</c:v>
+                  <c:v>2531</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1641</c:v>
+                  <c:v>1731</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1351</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>961</c:v>
+                  <c:v>1141</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1086</c:v>
+                  <c:v>1311</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>691</c:v>
+                  <c:v>771</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>761</c:v>
+                  <c:v>781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -575,25 +579,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>34921</c:v>
+                  <c:v>28121</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33171</c:v>
+                  <c:v>24291</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23151</c:v>
+                  <c:v>20371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20671</c:v>
+                  <c:v>15349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20059</c:v>
+                  <c:v>13450</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15633</c:v>
+                  <c:v>13909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16267</c:v>
+                  <c:v>10977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -934,7 +938,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1365900028868581"/>
+          <c:y val="4.8500881834215165E-2"/>
+          <c:w val="0.59223959541439286"/>
+          <c:h val="0.79251864350289558"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1014,7 +1028,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>28042</c:v>
+                  <c:v>27236</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>21950</c:v>
@@ -1120,25 +1134,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1631</c:v>
+                  <c:v>1091</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>867.55</c:v>
+                  <c:v>831</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>684.37699999999995</c:v>
+                  <c:v>641</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>605.21900000000005</c:v>
+                  <c:v>551</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>536.26099999999997</c:v>
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>477.81299999999999</c:v>
+                  <c:v>481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>424.89100000000002</c:v>
+                  <c:v>401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1226,25 +1240,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2316</c:v>
+                  <c:v>2971</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1801</c:v>
+                  <c:v>1731</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1266</c:v>
+                  <c:v>1791</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1316</c:v>
+                  <c:v>751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1051</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>731</c:v>
+                  <c:v>781</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>696</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1330,25 +1344,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>38151</c:v>
+                  <c:v>33736</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32339</c:v>
+                  <c:v>32248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27731</c:v>
+                  <c:v>31168</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20818</c:v>
+                  <c:v>22961</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18621</c:v>
+                  <c:v>19313</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17441</c:v>
+                  <c:v>16966</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15071</c:v>
+                  <c:v>15961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1867,7 +1881,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19762</c:v>
+                  <c:v>19313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2726,7 +2740,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30618</c:v>
+                  <c:v>31168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3585,7 +3599,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15940</c:v>
+                  <c:v>15961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7571,8 +7585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="I11" sqref="C8:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -7625,25 +7639,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>22032</v>
+        <v>22995</v>
       </c>
       <c r="D2">
-        <v>19606</v>
+        <v>20493</v>
       </c>
       <c r="E2">
-        <v>13530.5</v>
+        <v>14019</v>
       </c>
       <c r="F2">
-        <v>11104.5</v>
+        <v>11160</v>
       </c>
       <c r="G2">
-        <v>8261</v>
+        <v>7419</v>
       </c>
       <c r="H2">
-        <v>5691</v>
+        <v>6860</v>
       </c>
       <c r="I2">
-        <v>5352.5</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -7677,25 +7691,25 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2101</v>
+        <v>2531</v>
       </c>
       <c r="D4">
-        <v>1641</v>
+        <v>1731</v>
       </c>
       <c r="E4">
         <v>1351</v>
       </c>
       <c r="F4">
-        <v>961</v>
+        <v>1141</v>
       </c>
       <c r="G4">
-        <v>1086</v>
+        <v>1311</v>
       </c>
       <c r="H4">
-        <v>691</v>
+        <v>771</v>
       </c>
       <c r="I4">
-        <v>761</v>
+        <v>781</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -7704,25 +7718,25 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>34921</v>
+        <v>28121</v>
       </c>
       <c r="D5">
-        <v>33171</v>
+        <v>24291</v>
       </c>
       <c r="E5">
-        <v>23151</v>
+        <v>20371</v>
       </c>
       <c r="F5">
-        <v>20671</v>
+        <v>15349</v>
       </c>
       <c r="G5">
-        <v>20059</v>
+        <v>13450</v>
       </c>
       <c r="H5">
-        <v>15633</v>
+        <v>13909</v>
       </c>
       <c r="I5">
-        <v>16267</v>
+        <v>10977</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -7733,6 +7747,39 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <f>C5-C2</f>
+        <v>5126</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:I6" si="0">D5-D2</f>
+        <v>3798</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>6352</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>4189</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>6031</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>7049</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>6356</v>
+      </c>
+    </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
@@ -7767,7 +7814,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>28042</v>
+        <v>27236</v>
       </c>
       <c r="D8">
         <v>21950</v>
@@ -7793,25 +7840,25 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>1631</v>
+        <v>1091</v>
       </c>
       <c r="D9">
-        <v>867.55</v>
+        <v>831</v>
       </c>
       <c r="E9">
-        <v>684.37699999999995</v>
+        <v>641</v>
       </c>
       <c r="F9">
-        <v>605.21900000000005</v>
+        <v>551</v>
       </c>
       <c r="G9">
-        <v>536.26099999999997</v>
+        <v>521</v>
       </c>
       <c r="H9">
-        <v>477.81299999999999</v>
+        <v>481</v>
       </c>
       <c r="I9">
-        <v>424.89100000000002</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -7819,25 +7866,25 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>2316</v>
+        <v>2971</v>
       </c>
       <c r="D10">
-        <v>1801</v>
+        <v>1731</v>
       </c>
       <c r="E10">
-        <v>1266</v>
+        <v>1791</v>
       </c>
       <c r="F10">
-        <v>1316</v>
+        <v>751</v>
       </c>
       <c r="G10">
-        <v>1051</v>
+        <v>640</v>
       </c>
       <c r="H10">
-        <v>731</v>
+        <v>781</v>
       </c>
       <c r="I10">
-        <v>696</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -7846,25 +7893,58 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>38151</v>
+        <v>33736</v>
       </c>
       <c r="D11">
-        <v>32339</v>
+        <v>32248</v>
       </c>
       <c r="E11">
-        <v>27731</v>
+        <v>31168</v>
       </c>
       <c r="F11">
-        <v>20818</v>
+        <v>22961</v>
       </c>
       <c r="G11">
-        <v>18621</v>
+        <v>19313</v>
       </c>
       <c r="H11">
-        <v>17441</v>
+        <v>16966</v>
       </c>
       <c r="I11">
-        <v>15071</v>
+        <v>15961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <f>C11-C8</f>
+        <v>6500</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:I12" si="1">D11-D8</f>
+        <v>10298</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>14390</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>8462.5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>7557</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>8015</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>10060</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -7950,25 +8030,25 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>37607</v>
+        <v>33736</v>
       </c>
       <c r="D16">
-        <v>31038</v>
+        <v>32248</v>
       </c>
       <c r="E16">
-        <v>30618</v>
+        <v>31168</v>
       </c>
       <c r="F16">
-        <v>22441</v>
+        <v>22961</v>
       </c>
       <c r="G16">
-        <v>19762</v>
+        <v>19313</v>
       </c>
       <c r="H16">
-        <v>17883</v>
+        <v>16966</v>
       </c>
       <c r="I16">
-        <v>15940</v>
+        <v>15961</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">

--- a/test/output/new網路壽命比較.xlsx
+++ b/test/output/new網路壽命比較.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFE65F2-3480-4046-B721-D92405D7BAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A051321-D024-42E2-85BF-3AECE47A644E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>AVG_LIFETIME</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -45,19 +45,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.2/1.3</t>
+    <t>相差</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.2/1.4</t>
+    <t>1.2/1.2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.3/1.4</t>
+    <t>1.2/1.6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.3/1.5</t>
+    <t>1.2/1.7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -65,23 +65,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.2/1.5</t>
+    <t>1.3/1.7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.4/1.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4/1.6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4/1.7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相差</t>
+    <t>1.7/1.7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +582,7 @@
                   <c:v>13450</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13909</c:v>
+                  <c:v>12871</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10977</c:v>
@@ -1350,7 +1338,7 @@
                   <c:v>32248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31168</c:v>
+                  <c:v>27386</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>22961</c:v>
@@ -1721,7 +1709,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.3</c:v>
+                  <c:v>1.2/1.2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1740,7 +1728,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$G$13</c:f>
+              <c:f>工作表1!$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1752,12 +1740,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$G$14</c:f>
+              <c:f>工作表1!$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17117</c:v>
+                  <c:v>19031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1777,7 +1765,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.4</c:v>
+                  <c:v>1.2/1.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1802,7 +1790,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$G$13</c:f>
+              <c:f>工作表1!$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1814,12 +1802,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$G$15</c:f>
+              <c:f>工作表1!$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18621</c:v>
+                  <c:v>18081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1839,7 +1827,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.5</c:v>
+                  <c:v>1.2/1.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1864,7 +1852,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$G$13</c:f>
+              <c:f>工作表1!$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1876,7 +1864,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$G$16</c:f>
+              <c:f>工作表1!$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1901,7 +1889,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.3/1.4</c:v>
+                  <c:v>1.3/1.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1920,7 +1908,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$G$13</c:f>
+              <c:f>工作表1!$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1932,7 +1920,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$G$17</c:f>
+              <c:f>工作表1!$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1957,7 +1945,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.3/1.5</c:v>
+                  <c:v>1.3/1.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1977,7 +1965,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$G$13</c:f>
+              <c:f>工作表1!$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1989,12 +1977,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$G$18</c:f>
+              <c:f>工作表1!$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19741</c:v>
+                  <c:v>15451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2014,7 +2002,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>1.7/1.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2034,7 +2022,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$G$13</c:f>
+              <c:f>工作表1!$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2046,12 +2034,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$G$19</c:f>
+              <c:f>工作表1!$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18484</c:v>
+                  <c:v>18131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2059,176 +2047,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-4F61-402B-8DD3-F84CA6FBFCFB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.4/1.5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$G$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>16845</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4F61-402B-8DD3-F84CA6FBFCFB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.4/1.6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$G$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>19431</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-4F61-402B-8DD3-F84CA6FBFCFB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.4/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$G$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>18266</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-4F61-402B-8DD3-F84CA6FBFCFB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2580,7 +2398,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.3</c:v>
+                  <c:v>1.2/1.2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2599,7 +2417,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$E$13</c:f>
+              <c:f>工作表1!$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2611,12 +2429,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$E$14</c:f>
+              <c:f>工作表1!$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27106</c:v>
+                  <c:v>24933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2636,7 +2454,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.4</c:v>
+                  <c:v>1.2/1.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2661,7 +2479,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$E$13</c:f>
+              <c:f>工作表1!$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2673,12 +2491,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$E$15</c:f>
+              <c:f>工作表1!$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26386</c:v>
+                  <c:v>26621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2698,7 +2516,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.5</c:v>
+                  <c:v>1.2/1.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2723,7 +2541,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$E$13</c:f>
+              <c:f>工作表1!$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2735,7 +2553,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$E$16</c:f>
+              <c:f>工作表1!$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2760,7 +2578,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.3/1.4</c:v>
+                  <c:v>1.3/1.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2779,7 +2597,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$E$13</c:f>
+              <c:f>工作表1!$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2791,7 +2609,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$E$17</c:f>
+              <c:f>工作表1!$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2816,7 +2634,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.3/1.5</c:v>
+                  <c:v>1.3/1.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2836,7 +2654,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$E$13</c:f>
+              <c:f>工作表1!$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2848,12 +2666,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$E$18</c:f>
+              <c:f>工作表1!$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27043</c:v>
+                  <c:v>27963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2873,7 +2691,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>1.7/1.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2893,7 +2711,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$E$13</c:f>
+              <c:f>工作表1!$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2905,12 +2723,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$E$19</c:f>
+              <c:f>工作表1!$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26441</c:v>
+                  <c:v>26931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2918,176 +2736,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-D8B5-4F7B-A467-71995824BB9A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.4/1.5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$E$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>25824</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D8B5-4F7B-A467-71995824BB9A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.4/1.6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>26451</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-D8B5-4F7B-A467-71995824BB9A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.4/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$E$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>26251</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-D8B5-4F7B-A467-71995824BB9A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3439,7 +3087,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.3</c:v>
+                  <c:v>1.2/1.2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3458,7 +3106,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$I$13</c:f>
+              <c:f>工作表1!$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3470,12 +3118,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$I$14</c:f>
+              <c:f>工作表1!$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13411</c:v>
+                  <c:v>14846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3495,7 +3143,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.4</c:v>
+                  <c:v>1.2/1.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3520,7 +3168,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$I$13</c:f>
+              <c:f>工作表1!$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3532,12 +3180,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$I$15</c:f>
+              <c:f>工作表1!$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14021</c:v>
+                  <c:v>14652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3557,7 +3205,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.5</c:v>
+                  <c:v>1.2/1.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3582,7 +3230,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$I$13</c:f>
+              <c:f>工作表1!$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3594,7 +3242,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$I$16</c:f>
+              <c:f>工作表1!$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3619,7 +3267,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.3/1.4</c:v>
+                  <c:v>1.3/1.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3638,7 +3286,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$I$13</c:f>
+              <c:f>工作表1!$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3650,7 +3298,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$I$17</c:f>
+              <c:f>工作表1!$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3675,7 +3323,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.3/1.5</c:v>
+                  <c:v>1.3/1.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3695,7 +3343,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$I$13</c:f>
+              <c:f>工作表1!$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3707,12 +3355,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$I$18</c:f>
+              <c:f>工作表1!$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14361</c:v>
+                  <c:v>14291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3732,7 +3380,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>1.7/1.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3752,7 +3400,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$I$13</c:f>
+              <c:f>工作表1!$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3764,12 +3412,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$I$19</c:f>
+              <c:f>工作表1!$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15001</c:v>
+                  <c:v>15431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3777,176 +3425,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-2644-4C51-B873-EE140E4FEB81}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.4/1.5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$I$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$I$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>14408</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-2644-4C51-B873-EE140E4FEB81}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.4/1.6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$I$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$I$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>14391</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-2644-4C51-B873-EE140E4FEB81}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.4/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$I$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$I$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>14815</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-2644-4C51-B873-EE140E4FEB81}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7583,10 +7061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="I11" sqref="C8:I11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -7733,7 +7211,7 @@
         <v>13450</v>
       </c>
       <c r="H5">
-        <v>13909</v>
+        <v>12871</v>
       </c>
       <c r="I5">
         <v>10977</v>
@@ -7749,7 +7227,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <f>C5-C2</f>
@@ -7773,7 +7251,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>7049</v>
+        <v>6011</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -7899,7 +7377,7 @@
         <v>32248</v>
       </c>
       <c r="E11">
-        <v>31168</v>
+        <v>27386</v>
       </c>
       <c r="F11">
         <v>22961</v>
@@ -7916,7 +7394,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <f>C11-C8</f>
@@ -7928,7 +7406,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>14390</v>
+        <v>10608</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
@@ -7952,260 +7430,102 @@
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="D13" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E13" s="1">
-        <v>600</v>
-      </c>
-      <c r="F13" s="1">
-        <v>700</v>
-      </c>
-      <c r="G13" s="1">
-        <v>800</v>
-      </c>
-      <c r="H13" s="1">
-        <v>900</v>
-      </c>
-      <c r="I13" s="1">
         <v>1000</v>
       </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>36107</v>
+        <v>24933</v>
       </c>
       <c r="D14">
-        <v>30964</v>
+        <v>19031</v>
       </c>
       <c r="E14">
-        <v>27106</v>
-      </c>
-      <c r="F14">
-        <v>19811</v>
-      </c>
-      <c r="G14">
-        <v>17117</v>
-      </c>
-      <c r="H14">
-        <v>15856</v>
-      </c>
-      <c r="I14">
-        <v>13411</v>
+        <v>14846</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>35019</v>
+        <v>26621</v>
       </c>
       <c r="D15">
-        <v>30091</v>
+        <v>18081</v>
       </c>
       <c r="E15">
-        <v>26386</v>
-      </c>
-      <c r="F15">
-        <v>20818</v>
-      </c>
-      <c r="G15">
-        <v>18621</v>
-      </c>
-      <c r="H15">
-        <v>17441</v>
-      </c>
-      <c r="I15">
-        <v>14021</v>
+        <v>14652</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>33736</v>
+        <v>31168</v>
       </c>
       <c r="D16">
-        <v>32248</v>
+        <v>19313</v>
       </c>
       <c r="E16">
-        <v>31168</v>
-      </c>
-      <c r="F16">
-        <v>22961</v>
-      </c>
-      <c r="G16">
-        <v>19313</v>
-      </c>
-      <c r="H16">
-        <v>16966</v>
-      </c>
-      <c r="I16">
         <v>15961</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>36881</v>
+        <v>24926</v>
       </c>
       <c r="D17">
-        <v>31073</v>
+        <v>18666</v>
       </c>
       <c r="E17">
-        <v>24926</v>
-      </c>
-      <c r="F17">
-        <v>20547</v>
-      </c>
-      <c r="G17">
-        <v>18666</v>
-      </c>
-      <c r="H17">
-        <v>15104</v>
-      </c>
-      <c r="I17">
         <v>15881</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>33601</v>
+        <v>27963</v>
       </c>
       <c r="D18">
-        <v>30137</v>
+        <v>15451</v>
       </c>
       <c r="E18">
-        <v>27043</v>
-      </c>
-      <c r="F18">
-        <v>21782</v>
-      </c>
-      <c r="G18">
-        <v>19741</v>
-      </c>
-      <c r="H18">
-        <v>17876</v>
-      </c>
-      <c r="I18">
-        <v>14361</v>
+        <v>14291</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>34868</v>
+        <v>26931</v>
       </c>
       <c r="D19">
-        <v>27777</v>
+        <v>18131</v>
       </c>
       <c r="E19">
-        <v>26441</v>
-      </c>
-      <c r="F19">
-        <v>22012</v>
-      </c>
-      <c r="G19">
-        <v>18484</v>
-      </c>
-      <c r="H19">
-        <v>15852</v>
-      </c>
-      <c r="I19">
-        <v>15001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20">
-        <v>34600</v>
-      </c>
-      <c r="D20">
-        <v>30611</v>
-      </c>
-      <c r="E20">
-        <v>25824</v>
-      </c>
-      <c r="F20">
-        <v>20205</v>
-      </c>
-      <c r="G20">
-        <v>16845</v>
-      </c>
-      <c r="H20">
-        <v>15545</v>
-      </c>
-      <c r="I20">
-        <v>14408</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21">
-        <v>36811</v>
-      </c>
-      <c r="D21">
-        <v>28505</v>
-      </c>
-      <c r="E21">
-        <v>26451</v>
-      </c>
-      <c r="F21">
-        <v>20816</v>
-      </c>
-      <c r="G21">
-        <v>19431</v>
-      </c>
-      <c r="H21">
-        <v>13779</v>
-      </c>
-      <c r="I21">
-        <v>14391</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22">
-        <v>33301</v>
-      </c>
-      <c r="D22">
-        <v>30209</v>
-      </c>
-      <c r="E22">
-        <v>26251</v>
-      </c>
-      <c r="F22">
-        <v>21581</v>
-      </c>
-      <c r="G22">
-        <v>18266</v>
-      </c>
-      <c r="H22">
-        <v>15432</v>
-      </c>
-      <c r="I22">
-        <v>14815</v>
+        <v>15431</v>
       </c>
     </row>
   </sheetData>
